--- a/modelproject/Dataset/Natural_resources_the_world_bank.xlsx
+++ b/modelproject/Dataset/Natural_resources_the_world_bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LasseLindberg/Desktop/OneDrive - Københavns Universitet/Københavnsuniversitet/Økonomi/Kandidat/8. Semester/Introduction to programming and numerical analysis/projects-2019-ccl/modelproject/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A90A800A-7233-C140-9CE6-E2796C50A653}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0452F3E-6E9B-2A4C-A86A-612BEA38BC05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="960" windowWidth="24540" windowHeight="14260" xr2:uid="{5BF30F5C-9E1A-3B4D-A9A1-546B22773A0D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>Code</t>
   </si>
@@ -87,12 +87,6 @@
     <t>Azerbaijan</t>
   </si>
   <si>
-    <t>BDI</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
     <t>BEL</t>
   </si>
   <si>
@@ -171,12 +165,6 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>CHE</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
     <t>CHL</t>
   </si>
   <si>
@@ -219,12 +207,6 @@
     <t>Colombia</t>
   </si>
   <si>
-    <t>COM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
     <t>CRI</t>
   </si>
   <si>
@@ -237,12 +219,6 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>DJI</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
     <t>DNK</t>
   </si>
   <si>
@@ -327,12 +303,6 @@
     <t>Guinea</t>
   </si>
   <si>
-    <t>GMB</t>
-  </si>
-  <si>
-    <t>Gambia, The</t>
-  </si>
-  <si>
     <t>GRC</t>
   </si>
   <si>
@@ -363,12 +333,6 @@
     <t>Croatia</t>
   </si>
   <si>
-    <t>HTI</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
     <t>HUN</t>
   </si>
   <si>
@@ -399,12 +363,6 @@
     <t>Iraq</t>
   </si>
   <si>
-    <t>ISL</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
     <t>ITA</t>
   </si>
   <si>
@@ -447,12 +405,6 @@
     <t>Kyrgyz Republic</t>
   </si>
   <si>
-    <t>KHM</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
     <t>KOR</t>
   </si>
   <si>
@@ -471,12 +423,6 @@
     <t>Lao PDR</t>
   </si>
   <si>
-    <t>LBN</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
     <t>LBR</t>
   </si>
   <si>
@@ -501,36 +447,18 @@
     <t>Luxembourg</t>
   </si>
   <si>
-    <t>LVA</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
     <t>MAR</t>
   </si>
   <si>
     <t>Morocco</t>
   </si>
   <si>
-    <t>MDA</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
     <t>MDG</t>
   </si>
   <si>
     <t>Madagascar</t>
   </si>
   <si>
-    <t>MDV</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
     <t>MEX</t>
   </si>
   <si>
@@ -549,12 +477,6 @@
     <t>Mali</t>
   </si>
   <si>
-    <t>MLT</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
     <t>MNG</t>
   </si>
   <si>
@@ -573,12 +495,6 @@
     <t>Mauritania</t>
   </si>
   <si>
-    <t>MUS</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
     <t>MWI</t>
   </si>
   <si>
@@ -681,18 +597,6 @@
     <t>Portugal</t>
   </si>
   <si>
-    <t>PRY</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>PSE</t>
-  </si>
-  <si>
-    <t>West Bank and Gaza</t>
-  </si>
-  <si>
     <t>QAT</t>
   </si>
   <si>
@@ -729,12 +633,6 @@
     <t>Senegal</t>
   </si>
   <si>
-    <t>SGP</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
     <t>SLB</t>
   </si>
   <si>
@@ -745,12 +643,6 @@
   </si>
   <si>
     <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>SLV</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
   </si>
   <si>
     <t>SUR</t>
@@ -1259,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5EAC58-0B15-BA47-85FC-90D1BA0482C4}">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1392,10 +1284,10 @@
         <v>19</v>
       </c>
       <c r="C9" s="2">
-        <v>4316.3078596903079</v>
+        <v>3986.6298034382935</v>
       </c>
       <c r="D9" s="2">
-        <v>14.902134607069026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1406,10 +1298,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="2">
-        <v>3986.6298034382935</v>
+        <v>3023.0293992045254</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>734.13619499328809</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1420,10 +1312,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="2">
-        <v>3023.0293992045254</v>
+        <v>1131.307678222626</v>
       </c>
       <c r="D11" s="2">
-        <v>734.13619499328809</v>
+        <v>85.040782761655052</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1434,10 +1326,10 @@
         <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>1131.307678222626</v>
+        <v>6186.0415269602827</v>
       </c>
       <c r="D12" s="2">
-        <v>85.040782761655052</v>
+        <v>3459.4204607230654</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1448,10 +1340,10 @@
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>6186.0415269602827</v>
+        <v>361.14315629712326</v>
       </c>
       <c r="D13" s="2">
-        <v>3459.4204607230654</v>
+        <v>13451.227888727892</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1462,10 +1354,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="2">
-        <v>361.14315629712326</v>
+        <v>4003.8121146905009</v>
       </c>
       <c r="D14" s="2">
-        <v>13451.227888727892</v>
+        <v>2302.3358318467917</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1476,10 +1368,10 @@
         <v>31</v>
       </c>
       <c r="C15" s="2">
-        <v>4003.8121146905009</v>
+        <v>10159.993877851088</v>
       </c>
       <c r="D15" s="2">
-        <v>2302.3358318467917</v>
+        <v>1167.0525332525308</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1490,10 +1382,10 @@
         <v>33</v>
       </c>
       <c r="C16" s="2">
-        <v>10159.993877851088</v>
+        <v>5269.6786168325189</v>
       </c>
       <c r="D16" s="2">
-        <v>1167.0525332525308</v>
+        <v>1864.5481076852329</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1504,10 +1396,10 @@
         <v>35</v>
       </c>
       <c r="C17" s="2">
-        <v>5269.6786168325189</v>
+        <v>7293.3895157280513</v>
       </c>
       <c r="D17" s="2">
-        <v>1864.5481076852329</v>
+        <v>3321.8091529752205</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1518,10 +1410,10 @@
         <v>37</v>
       </c>
       <c r="C18" s="2">
-        <v>7293.3895157280513</v>
+        <v>10754.33676848259</v>
       </c>
       <c r="D18" s="2">
-        <v>3321.8091529752205</v>
+        <v>8811.1532497521694</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1532,10 +1424,10 @@
         <v>39</v>
       </c>
       <c r="C19" s="2">
-        <v>10754.33676848259</v>
+        <v>4436.2552868944058</v>
       </c>
       <c r="D19" s="2">
-        <v>8811.1532497521694</v>
+        <v>3997.7029635636509</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1546,10 +1438,10 @@
         <v>41</v>
       </c>
       <c r="C20" s="2">
-        <v>4436.2552868944058</v>
+        <v>6917.6150071985585</v>
       </c>
       <c r="D20" s="2">
-        <v>3997.7029635636509</v>
+        <v>5.3421658720077678</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1560,10 +1452,10 @@
         <v>43</v>
       </c>
       <c r="C21" s="2">
-        <v>6917.6150071985585</v>
+        <v>6046.7894721081102</v>
       </c>
       <c r="D21" s="2">
-        <v>5.3421658720077678</v>
+        <v>27915.230982349116</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1574,10 +1466,10 @@
         <v>45</v>
       </c>
       <c r="C22" s="2">
-        <v>6046.7894721081102</v>
+        <v>3426.9933496586805</v>
       </c>
       <c r="D22" s="2">
-        <v>27915.230982349116</v>
+        <v>44279.349253672619</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1588,10 +1480,10 @@
         <v>47</v>
       </c>
       <c r="C23" s="2">
-        <v>6634.8132228567811</v>
+        <v>6210.7451835963493</v>
       </c>
       <c r="D23" s="2">
-        <v>0.25367981088944125</v>
+        <v>4555.6904862491692</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1602,10 +1494,10 @@
         <v>49</v>
       </c>
       <c r="C24" s="2">
-        <v>3426.9933496586805</v>
+        <v>5000.4078263252904</v>
       </c>
       <c r="D24" s="2">
-        <v>44279.349253672619</v>
+        <v>635.97653544367074</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1616,10 +1508,10 @@
         <v>51</v>
       </c>
       <c r="C25" s="2">
-        <v>6210.7451835963493</v>
+        <v>4335.181839327578</v>
       </c>
       <c r="D25" s="2">
-        <v>4555.6904862491692</v>
+        <v>532.19106204924083</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1630,10 +1522,10 @@
         <v>53</v>
       </c>
       <c r="C26" s="2">
-        <v>5000.4078263252904</v>
+        <v>1836.9506565237327</v>
       </c>
       <c r="D26" s="2">
-        <v>635.97653544367074</v>
+        <v>1485.7673141604803</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1644,10 +1536,10 @@
         <v>55</v>
       </c>
       <c r="C27" s="2">
-        <v>4335.181839327578</v>
+        <v>3921.1653844013595</v>
       </c>
       <c r="D27" s="2">
-        <v>532.19106204924083</v>
+        <v>17551.453988594021</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1658,10 +1550,10 @@
         <v>57</v>
       </c>
       <c r="C28" s="2">
-        <v>1836.9506565237327</v>
+        <v>6710.107340113399</v>
       </c>
       <c r="D28" s="2">
-        <v>1485.7673141604803</v>
+        <v>4639.7761961238284</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1672,10 +1564,10 @@
         <v>59</v>
       </c>
       <c r="C29" s="2">
-        <v>3921.1653844013595</v>
+        <v>15217.869430660307</v>
       </c>
       <c r="D29" s="2">
-        <v>17551.453988594021</v>
+        <v>32.221686838715925</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1686,10 +1578,10 @@
         <v>61</v>
       </c>
       <c r="C30" s="2">
-        <v>6710.107340113399</v>
+        <v>2990.7506766933052</v>
       </c>
       <c r="D30" s="2">
-        <v>4639.7761961238284</v>
+        <v>738.29126911019955</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1700,10 +1592,10 @@
         <v>63</v>
       </c>
       <c r="C31" s="2">
-        <v>2356.7569145915909</v>
+        <v>6339.4533448016755</v>
       </c>
       <c r="D31" s="2">
-        <v>0</v>
+        <v>6917.5811220414071</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1714,10 +1606,10 @@
         <v>65</v>
       </c>
       <c r="C32" s="2">
-        <v>15217.869430660307</v>
+        <v>2701.1025912355703</v>
       </c>
       <c r="D32" s="2">
-        <v>32.221686838715925</v>
+        <v>1179.5505687732207</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1728,10 +1620,10 @@
         <v>67</v>
       </c>
       <c r="C33" s="2">
-        <v>2990.7506766933052</v>
+        <v>6445.4431228744943</v>
       </c>
       <c r="D33" s="2">
-        <v>738.29126911019955</v>
+        <v>14559.516332399216</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1742,10 +1634,10 @@
         <v>69</v>
       </c>
       <c r="C34" s="2">
-        <v>3243.9231776549882</v>
+        <v>5785.8140936711898</v>
       </c>
       <c r="D34" s="2">
-        <v>0</v>
+        <v>4378.4480245196746</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1756,10 +1648,10 @@
         <v>71</v>
       </c>
       <c r="C35" s="2">
-        <v>6339.4533448016755</v>
+        <v>5503.3389828651416</v>
       </c>
       <c r="D35" s="2">
-        <v>6917.5811220414071</v>
+        <v>326.49370427705406</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1770,10 +1662,10 @@
         <v>73</v>
       </c>
       <c r="C36" s="2">
-        <v>2701.1025912355703</v>
+        <v>3676.4736642578018</v>
       </c>
       <c r="D36" s="2">
-        <v>1179.5505687732207</v>
+        <v>590.52550821715647</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1784,10 +1676,10 @@
         <v>75</v>
       </c>
       <c r="C37" s="2">
-        <v>6445.4431228744943</v>
+        <v>2538.6566309838199</v>
       </c>
       <c r="D37" s="2">
-        <v>14559.516332399216</v>
+        <v>50.165113412759396</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1798,10 +1690,10 @@
         <v>77</v>
       </c>
       <c r="C38" s="2">
-        <v>5785.8140936711898</v>
+        <v>4912.8822241131193</v>
       </c>
       <c r="D38" s="2">
-        <v>4378.4480245196746</v>
+        <v>2882.7348935344376</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1812,10 +1704,10 @@
         <v>79</v>
       </c>
       <c r="C39" s="2">
-        <v>5503.3389828651416</v>
+        <v>5071.8182979658886</v>
       </c>
       <c r="D39" s="2">
-        <v>326.49370427705406</v>
+        <v>80.680915164987809</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1826,10 +1718,10 @@
         <v>81</v>
       </c>
       <c r="C40" s="2">
-        <v>3676.4736642578018</v>
+        <v>7777.6799102454979</v>
       </c>
       <c r="D40" s="2">
-        <v>590.52550821715647</v>
+        <v>51598.317537597468</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1840,10 +1732,10 @@
         <v>83</v>
       </c>
       <c r="C41" s="2">
-        <v>2538.6566309838199</v>
+        <v>2230.067654136582</v>
       </c>
       <c r="D41" s="2">
-        <v>50.165113412759396</v>
+        <v>3005.3521397237587</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1854,10 +1746,10 @@
         <v>85</v>
       </c>
       <c r="C42" s="2">
-        <v>4912.8822241131193</v>
+        <v>8000.8208615091835</v>
       </c>
       <c r="D42" s="2">
-        <v>2882.7348935344376</v>
+        <v>917.2362715310461</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1868,10 +1760,10 @@
         <v>87</v>
       </c>
       <c r="C43" s="2">
-        <v>5071.8182979658886</v>
+        <v>7144.4815791710207</v>
       </c>
       <c r="D43" s="2">
-        <v>80.680915164987809</v>
+        <v>1673.0734626538563</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1882,10 +1774,10 @@
         <v>89</v>
       </c>
       <c r="C44" s="2">
-        <v>7777.6799102454979</v>
+        <v>3186.1119609832581</v>
       </c>
       <c r="D44" s="2">
-        <v>51598.317537597468</v>
+        <v>1022.3942900012476</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1896,10 +1788,10 @@
         <v>91</v>
       </c>
       <c r="C45" s="2">
-        <v>2230.067654136582</v>
+        <v>9004.5493482048059</v>
       </c>
       <c r="D45" s="2">
-        <v>3005.3521397237587</v>
+        <v>1417.0252766838269</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1910,10 +1802,10 @@
         <v>93</v>
       </c>
       <c r="C46" s="2">
-        <v>8000.8208615091835</v>
+        <v>3286.2504824245248</v>
       </c>
       <c r="D46" s="2">
-        <v>917.2362715310461</v>
+        <v>738.03582417355244</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1924,10 +1816,10 @@
         <v>95</v>
       </c>
       <c r="C47" s="2">
-        <v>7144.4815791710207</v>
+        <v>10010.346918697105</v>
       </c>
       <c r="D47" s="2">
-        <v>1673.0734626538563</v>
+        <v>6857.4157171853712</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1938,10 +1830,10 @@
         <v>97</v>
       </c>
       <c r="C48" s="2">
-        <v>3186.1119609832581</v>
+        <v>4385.8470220186036</v>
       </c>
       <c r="D48" s="2">
-        <v>1022.3942900012476</v>
+        <v>222.97386482252489</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1952,10 +1844,10 @@
         <v>99</v>
       </c>
       <c r="C49" s="2">
-        <v>1061.0928395565727</v>
+        <v>2734.0086239607758</v>
       </c>
       <c r="D49" s="2">
-        <v>0</v>
+        <v>1156.3711662065036</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1966,10 +1858,10 @@
         <v>101</v>
       </c>
       <c r="C50" s="2">
-        <v>9004.5493482048059</v>
+        <v>3092.3943896887627</v>
       </c>
       <c r="D50" s="2">
-        <v>1417.0252766838269</v>
+        <v>413.44467647992377</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1980,10 +1872,10 @@
         <v>103</v>
       </c>
       <c r="C51" s="2">
-        <v>3286.2504824245248</v>
+        <v>3404.360461420345</v>
       </c>
       <c r="D51" s="2">
-        <v>738.03582417355244</v>
+        <v>3121.8575131106472</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1994,10 +1886,10 @@
         <v>105</v>
       </c>
       <c r="C52" s="2">
-        <v>10010.346918697105</v>
+        <v>2203.9249087547173</v>
       </c>
       <c r="D52" s="2">
-        <v>6857.4157171853712</v>
+        <v>1105.4079628227512</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2008,10 +1900,10 @@
         <v>107</v>
       </c>
       <c r="C53" s="2">
-        <v>4385.8470220186036</v>
+        <v>11973.825062710026</v>
       </c>
       <c r="D53" s="2">
-        <v>222.97386482252489</v>
+        <v>367.47624528010425</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2022,10 +1914,10 @@
         <v>109</v>
       </c>
       <c r="C54" s="2">
-        <v>2734.0086239607758</v>
+        <v>2329.9075365715889</v>
       </c>
       <c r="D54" s="2">
-        <v>1156.3711662065036</v>
+        <v>68498.075936189838</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2036,10 +1928,10 @@
         <v>111</v>
       </c>
       <c r="C55" s="2">
-        <v>2130.729412274648</v>
+        <v>5487.171525433364</v>
       </c>
       <c r="D55" s="2">
-        <v>0</v>
+        <v>526.6453609233721</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2050,10 +1942,10 @@
         <v>113</v>
       </c>
       <c r="C56" s="2">
-        <v>3092.3943896887627</v>
+        <v>3836.5449505355828</v>
       </c>
       <c r="D56" s="2">
-        <v>413.44467647992377</v>
+        <v>1299.5542784751183</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2064,10 +1956,10 @@
         <v>115</v>
       </c>
       <c r="C57" s="2">
-        <v>3404.360461420345</v>
+        <v>7095.3942028239489</v>
       </c>
       <c r="D57" s="2">
-        <v>3121.8575131106472</v>
+        <v>2334.3501324177873</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2078,10 +1970,10 @@
         <v>117</v>
       </c>
       <c r="C58" s="2">
-        <v>2203.9249087547173</v>
+        <v>1090.5345541860565</v>
       </c>
       <c r="D58" s="2">
-        <v>1105.4079628227512</v>
+        <v>42.787533979831878</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2092,10 +1984,10 @@
         <v>119</v>
       </c>
       <c r="C59" s="2">
-        <v>11973.825062710026</v>
+        <v>14677.136549376246</v>
       </c>
       <c r="D59" s="2">
-        <v>367.47624528010425</v>
+        <v>53440.251436770166</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2106,10 +1998,10 @@
         <v>121</v>
       </c>
       <c r="C60" s="2">
-        <v>2329.9075365715889</v>
+        <v>5966.8928176022619</v>
       </c>
       <c r="D60" s="2">
-        <v>68498.075936189838</v>
+        <v>24.889730343218702</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2120,10 +2012,10 @@
         <v>123</v>
       </c>
       <c r="C61" s="2">
-        <v>3999.7575643675846</v>
+        <v>9434.6850411418673</v>
       </c>
       <c r="D61" s="2">
-        <v>0</v>
+        <v>1489.8892666703011</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2134,10 +2026,10 @@
         <v>125</v>
       </c>
       <c r="C62" s="2">
-        <v>5487.171525433364</v>
+        <v>2114.91868861495</v>
       </c>
       <c r="D62" s="2">
-        <v>526.6453609233721</v>
+        <v>79.335711031078617</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2148,10 +2040,10 @@
         <v>127</v>
       </c>
       <c r="C63" s="2">
-        <v>3836.5449505355828</v>
+        <v>1028.8629714645617</v>
       </c>
       <c r="D63" s="2">
-        <v>1299.5542784751183</v>
+        <v>588862.14256608603</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2162,10 +2054,10 @@
         <v>129</v>
       </c>
       <c r="C64" s="2">
-        <v>7095.3942028239489</v>
+        <v>6634.1158625426051</v>
       </c>
       <c r="D64" s="2">
-        <v>2334.3501324177873</v>
+        <v>3724.4102309331415</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2176,10 +2068,10 @@
         <v>131</v>
       </c>
       <c r="C65" s="2">
-        <v>1090.5345541860565</v>
+        <v>2758.8030768205449</v>
       </c>
       <c r="D65" s="2">
-        <v>42.787533979831878</v>
+        <v>2426.7776764400428</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2190,10 +2082,10 @@
         <v>133</v>
       </c>
       <c r="C66" s="2">
-        <v>14677.136549376246</v>
+        <v>1974.6071405593493</v>
       </c>
       <c r="D66" s="2">
-        <v>53440.251436770166</v>
+        <v>5.8077350382586683</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2204,10 +2096,10 @@
         <v>135</v>
       </c>
       <c r="C67" s="2">
-        <v>5966.8928176022619</v>
+        <v>3670.7536912479686</v>
       </c>
       <c r="D67" s="2">
-        <v>24.889730343218702</v>
+        <v>174.30614387682581</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2218,10 +2110,10 @@
         <v>137</v>
       </c>
       <c r="C68" s="2">
-        <v>9434.6850411418673</v>
+        <v>5600.6670268974558</v>
       </c>
       <c r="D68" s="2">
-        <v>1489.8892666703011</v>
+        <v>1988.6525713033609</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2232,10 +2124,10 @@
         <v>139</v>
       </c>
       <c r="C69" s="2">
-        <v>1774.2547093608912</v>
+        <v>4482.9112922967179</v>
       </c>
       <c r="D69" s="2">
-        <v>0</v>
+        <v>2334.9264478461491</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2246,10 +2138,10 @@
         <v>141</v>
       </c>
       <c r="C70" s="2">
-        <v>2114.91868861495</v>
+        <v>2854.0815757215482</v>
       </c>
       <c r="D70" s="2">
-        <v>79.335711031078617</v>
+        <v>137.62395344640154</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2260,10 +2152,10 @@
         <v>143</v>
       </c>
       <c r="C71" s="2">
-        <v>1028.8629714645617</v>
+        <v>5255.636721564204</v>
       </c>
       <c r="D71" s="2">
-        <v>588862.14256608603</v>
+        <v>5796.7818620248991</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2274,10 +2166,10 @@
         <v>145</v>
       </c>
       <c r="C72" s="2">
-        <v>6634.1158625426051</v>
+        <v>5289.2071645124124</v>
       </c>
       <c r="D72" s="2">
-        <v>3724.4102309331415</v>
+        <v>3105.9756379713144</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2288,10 +2180,10 @@
         <v>147</v>
       </c>
       <c r="C73" s="2">
-        <v>4238.57987057839</v>
+        <v>6379.5810521813146</v>
       </c>
       <c r="D73" s="2">
-        <v>0</v>
+        <v>956.2100362158244</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2302,10 +2194,10 @@
         <v>149</v>
       </c>
       <c r="C74" s="2">
-        <v>2758.8030768205449</v>
+        <v>24717.783695146409</v>
       </c>
       <c r="D74" s="2">
-        <v>2426.7776764400428</v>
+        <v>22319.661017742645</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2316,10 +2208,10 @@
         <v>151</v>
       </c>
       <c r="C75" s="2">
-        <v>1974.6071405593493</v>
+        <v>1296.2510165531908</v>
       </c>
       <c r="D75" s="2">
-        <v>5.8077350382586683</v>
+        <v>332.92361819966578</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2330,10 +2222,10 @@
         <v>153</v>
       </c>
       <c r="C76" s="2">
-        <v>3670.7536912479686</v>
+        <v>7583.6609388133329</v>
       </c>
       <c r="D76" s="2">
-        <v>174.30614387682581</v>
+        <v>10293.191184529223</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2344,10 +2236,10 @@
         <v>155</v>
       </c>
       <c r="C77" s="2">
-        <v>5600.6670268974558</v>
+        <v>2183.0720522611773</v>
       </c>
       <c r="D77" s="2">
-        <v>1988.6525713033609</v>
+        <v>4.032440339952104</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2358,10 +2250,10 @@
         <v>157</v>
       </c>
       <c r="C78" s="2">
-        <v>3026.3734834528241</v>
+        <v>3910.8113648195003</v>
       </c>
       <c r="D78" s="2">
-        <v>0</v>
+        <v>7894.187770310743</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2372,10 +2264,10 @@
         <v>159</v>
       </c>
       <c r="C79" s="2">
-        <v>4482.9112922967179</v>
+        <v>7108.4340881130502</v>
       </c>
       <c r="D79" s="2">
-        <v>2334.9264478461491</v>
+        <v>1532.1937915327346</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2386,10 +2278,10 @@
         <v>161</v>
       </c>
       <c r="C80" s="2">
-        <v>5619.6277129724913</v>
+        <v>5234.4415165826258</v>
       </c>
       <c r="D80" s="2">
-        <v>0.29219929390663807</v>
+        <v>234.87384092412992</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2400,10 +2292,10 @@
         <v>163</v>
       </c>
       <c r="C81" s="2">
-        <v>2854.0815757215482</v>
+        <v>12290.988549020172</v>
       </c>
       <c r="D81" s="2">
-        <v>137.62395344640154</v>
+        <v>7869.6354493290055</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2414,10 +2306,10 @@
         <v>165</v>
       </c>
       <c r="C82" s="2">
-        <v>494.4687346646578</v>
+        <v>4180.6256394780348</v>
       </c>
       <c r="D82" s="2">
-        <v>0</v>
+        <v>482.0285123613595</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2428,10 +2320,10 @@
         <v>167</v>
       </c>
       <c r="C83" s="2">
-        <v>5255.636721564204</v>
+        <v>4552.1744847096425</v>
       </c>
       <c r="D83" s="2">
-        <v>5796.7818620248991</v>
+        <v>4223.8633180204915</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2442,10 +2334,10 @@
         <v>169</v>
       </c>
       <c r="C84" s="2">
-        <v>5289.2071645124124</v>
+        <v>6372.783292739522</v>
       </c>
       <c r="D84" s="2">
-        <v>3105.9756379713144</v>
+        <v>83250.768104720555</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2456,10 +2348,10 @@
         <v>171</v>
       </c>
       <c r="C85" s="2">
-        <v>6379.5810521813146</v>
+        <v>3515.4624168924915</v>
       </c>
       <c r="D85" s="2">
-        <v>956.2100362158244</v>
+        <v>0.77787179221384917</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2470,10 +2362,10 @@
         <v>173</v>
       </c>
       <c r="C86" s="2">
-        <v>1778.1948059802828</v>
+        <v>2962.544152544287</v>
       </c>
       <c r="D86" s="2">
-        <v>0</v>
+        <v>89100.769065247179</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2484,10 +2376,10 @@
         <v>175</v>
       </c>
       <c r="C87" s="2">
-        <v>24717.783695146409</v>
+        <v>4608.450926045829</v>
       </c>
       <c r="D87" s="2">
-        <v>22319.661017742645</v>
+        <v>293.52336614475462</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2498,10 +2390,10 @@
         <v>177</v>
       </c>
       <c r="C88" s="2">
-        <v>1296.2510165531908</v>
+        <v>4032.4875503775829</v>
       </c>
       <c r="D88" s="2">
-        <v>332.92361819966578</v>
+        <v>166.68107655028655</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2512,10 +2404,10 @@
         <v>179</v>
       </c>
       <c r="C89" s="2">
-        <v>7583.6609388133329</v>
+        <v>3830.6337733415135</v>
       </c>
       <c r="D89" s="2">
-        <v>10293.191184529223</v>
+        <v>11737.164993984246</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2526,10 +2418,10 @@
         <v>181</v>
       </c>
       <c r="C90" s="2">
-        <v>3475.4967638113458</v>
+        <v>2544.2787538285347</v>
       </c>
       <c r="D90" s="2">
-        <v>0</v>
+        <v>592.42688168244865</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2540,10 +2432,10 @@
         <v>183</v>
       </c>
       <c r="C91" s="2">
-        <v>2183.0720522611773</v>
+        <v>20008.919875043513</v>
       </c>
       <c r="D91" s="2">
-        <v>4.032440339952104</v>
+        <v>8866.6555810934187</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2554,10 +2446,10 @@
         <v>185</v>
       </c>
       <c r="C92" s="2">
-        <v>3910.8113648195003</v>
+        <v>2471.6094400437514</v>
       </c>
       <c r="D92" s="2">
-        <v>7894.187770310743</v>
+        <v>3894.4406989451027</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2568,10 +2460,10 @@
         <v>187</v>
       </c>
       <c r="C93" s="2">
-        <v>7108.4340881130502</v>
+        <v>4098.0359947772895</v>
       </c>
       <c r="D93" s="2">
-        <v>1532.1937915327346</v>
+        <v>833.38584009547549</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2582,10 +2474,10 @@
         <v>189</v>
       </c>
       <c r="C94" s="2">
-        <v>5234.4415165826258</v>
+        <v>1119.3228973125422</v>
       </c>
       <c r="D94" s="2">
-        <v>234.87384092412992</v>
+        <v>659326.63836192188</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2596,10 +2488,10 @@
         <v>191</v>
       </c>
       <c r="C95" s="2">
-        <v>12290.988549020172</v>
+        <v>11189.509970521847</v>
       </c>
       <c r="D95" s="2">
-        <v>7869.6354493290055</v>
+        <v>1898.6249023118662</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2610,10 +2502,10 @@
         <v>193</v>
       </c>
       <c r="C96" s="2">
-        <v>4180.6256394780348</v>
+        <v>4455.8266222610791</v>
       </c>
       <c r="D96" s="2">
-        <v>482.0285123613595</v>
+        <v>38246.963863322584</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2624,10 +2516,10 @@
         <v>195</v>
       </c>
       <c r="C97" s="2">
-        <v>4552.1744847096425</v>
+        <v>2984.8227010769992</v>
       </c>
       <c r="D97" s="2">
-        <v>4223.8633180204915</v>
+        <v>59.672258060145353</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2638,10 +2530,10 @@
         <v>197</v>
       </c>
       <c r="C98" s="2">
-        <v>6372.783292739522</v>
+        <v>2283.3868867353572</v>
       </c>
       <c r="D98" s="2">
-        <v>83250.768104720555</v>
+        <v>249105.16597135458</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2652,10 +2544,10 @@
         <v>199</v>
       </c>
       <c r="C99" s="2">
-        <v>3515.4624168924915</v>
+        <v>1754.4920588255147</v>
       </c>
       <c r="D99" s="2">
-        <v>0.77787179221384917</v>
+        <v>339.536514875541</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2666,10 +2558,10 @@
         <v>201</v>
       </c>
       <c r="C100" s="2">
-        <v>2962.544152544287</v>
+        <v>5865.4920075490254</v>
       </c>
       <c r="D100" s="2">
-        <v>89100.769065247179</v>
+        <v>1138.2360118578054</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2680,10 +2572,10 @@
         <v>203</v>
       </c>
       <c r="C101" s="2">
-        <v>4608.450926045829</v>
+        <v>2100.4074086709466</v>
       </c>
       <c r="D101" s="2">
-        <v>293.52336614475462</v>
+        <v>2980.1052884226783</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2694,10 +2586,10 @@
         <v>205</v>
       </c>
       <c r="C102" s="2">
-        <v>4032.4875503775829</v>
+        <v>5129.7377732462828</v>
       </c>
       <c r="D102" s="2">
-        <v>166.68107655028655</v>
+        <v>31394.994304493121</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2708,10 +2600,10 @@
         <v>207</v>
       </c>
       <c r="C103" s="2">
-        <v>3830.6337733415135</v>
+        <v>2091.6219493888684</v>
       </c>
       <c r="D103" s="2">
-        <v>11737.164993984246</v>
+        <v>223.885337055474</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2722,10 +2614,10 @@
         <v>209</v>
       </c>
       <c r="C104" s="2">
-        <v>2544.2787538285347</v>
+        <v>3583.4158751502878</v>
       </c>
       <c r="D104" s="2">
-        <v>592.42688168244865</v>
+        <v>580.20518724754402</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2736,10 +2628,10 @@
         <v>211</v>
       </c>
       <c r="C105" s="2">
-        <v>20008.919875043513</v>
+        <v>3934.098088083992</v>
       </c>
       <c r="D105" s="2">
-        <v>8866.6555810934187</v>
+        <v>9010.2090623323147</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2750,10 +2642,10 @@
         <v>213</v>
       </c>
       <c r="C106" s="2">
-        <v>2471.6094400437514</v>
+        <v>4885.8824734748532</v>
       </c>
       <c r="D106" s="2">
-        <v>3894.4406989451027</v>
+        <v>380.35971562350056</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2764,10 +2656,10 @@
         <v>215</v>
       </c>
       <c r="C107" s="2">
-        <v>4098.0359947772895</v>
+        <v>4267.4996174349844</v>
       </c>
       <c r="D107" s="2">
-        <v>833.38584009547549</v>
+        <v>3955.9484748607383</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2778,10 +2670,10 @@
         <v>217</v>
       </c>
       <c r="C108" s="2">
-        <v>12650.478882793326</v>
+        <v>2207.9452675121679</v>
       </c>
       <c r="D108" s="2">
-        <v>0</v>
+        <v>1293.9492112014973</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2792,10 +2684,10 @@
         <v>219</v>
       </c>
       <c r="C109" s="2">
-        <v>7136.7672659137315</v>
+        <v>4627.2770987900631</v>
       </c>
       <c r="D109" s="2">
-        <v>0</v>
+        <v>661.98177719845103</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -2806,10 +2698,10 @@
         <v>221</v>
       </c>
       <c r="C110" s="2">
-        <v>1119.3228973125422</v>
+        <v>4190.8455162854125</v>
       </c>
       <c r="D110" s="2">
-        <v>659326.63836192188</v>
+        <v>229.1718712603994</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -2820,10 +2712,10 @@
         <v>223</v>
       </c>
       <c r="C111" s="2">
-        <v>11189.509970521847</v>
+        <v>19417.517507178836</v>
       </c>
       <c r="D111" s="2">
-        <v>1898.6249023118662</v>
+        <v>37843.007189115429</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -2834,10 +2726,10 @@
         <v>225</v>
       </c>
       <c r="C112" s="2">
-        <v>4455.8266222610791</v>
+        <v>4521.718082860114</v>
       </c>
       <c r="D112" s="2">
-        <v>38246.963863322584</v>
+        <v>3537.5791714102638</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2848,10 +2740,10 @@
         <v>227</v>
       </c>
       <c r="C113" s="2">
-        <v>2984.8227010769992</v>
+        <v>10281.132841262188</v>
       </c>
       <c r="D113" s="2">
-        <v>59.672258060145353</v>
+        <v>932.68515981531004</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2862,10 +2754,10 @@
         <v>229</v>
       </c>
       <c r="C114" s="2">
-        <v>2283.3868867353572</v>
+        <v>3615.9636596821756</v>
       </c>
       <c r="D114" s="2">
-        <v>249105.16597135458</v>
+        <v>360.81710105436366</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2876,10 +2768,10 @@
         <v>231</v>
       </c>
       <c r="C115" s="2">
-        <v>1754.4920588255147</v>
+        <v>5310.2788259943582</v>
       </c>
       <c r="D115" s="2">
-        <v>339.536514875541</v>
+        <v>0.78932003636446946</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2890,10 +2782,10 @@
         <v>233</v>
       </c>
       <c r="C116" s="2">
-        <v>29.582081772950755</v>
+        <v>6153.6142031191766</v>
       </c>
       <c r="D116" s="2">
-        <v>0</v>
+        <v>5210.3753650802237</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2904,10 +2796,10 @@
         <v>235</v>
       </c>
       <c r="C117" s="2">
-        <v>5865.4920075490254</v>
+        <v>11083.746336444554</v>
       </c>
       <c r="D117" s="2">
-        <v>1138.2360118578054</v>
+        <v>222.4990443535043</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2918,10 +2810,10 @@
         <v>237</v>
       </c>
       <c r="C118" s="2">
-        <v>2100.4074086709466</v>
+        <v>4268.6780353954719</v>
       </c>
       <c r="D118" s="2">
-        <v>2980.1052884226783</v>
+        <v>8651.2061458859989</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2932,10 +2824,10 @@
         <v>239</v>
       </c>
       <c r="C119" s="2">
-        <v>2616.1065963821197</v>
+        <v>1564.1070730941701</v>
       </c>
       <c r="D119" s="2">
-        <v>0</v>
+        <v>32025.637647496082</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -2946,10 +2838,10 @@
         <v>241</v>
       </c>
       <c r="C120" s="2">
-        <v>5129.7377732462828</v>
+        <v>4127.2236621145339</v>
       </c>
       <c r="D120" s="2">
-        <v>31394.994304493121</v>
+        <v>2533.2416113254631</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2960,10 +2852,10 @@
         <v>243</v>
       </c>
       <c r="C121" s="2">
-        <v>2091.6219493888684</v>
+        <v>3691.3232358508822</v>
       </c>
       <c r="D121" s="2">
-        <v>223.885337055474</v>
+        <v>6699.3860952976038</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2974,10 +2866,10 @@
         <v>245</v>
       </c>
       <c r="C122" s="2">
-        <v>3583.4158751502878</v>
+        <v>4074.410280948523</v>
       </c>
       <c r="D122" s="2">
-        <v>580.20518724754402</v>
+        <v>7148.9007725126521</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2988,10 +2880,10 @@
         <v>247</v>
       </c>
       <c r="C123" s="2">
-        <v>3934.098088083992</v>
+        <v>3458.8952972714051</v>
       </c>
       <c r="D123" s="2">
-        <v>9010.2090623323147</v>
+        <v>4334.8720319565455</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -3002,261 +2894,9 @@
         <v>249</v>
       </c>
       <c r="C124" s="2">
-        <v>4885.8824734748532</v>
+        <v>4018.3912929649478</v>
       </c>
       <c r="D124" s="2">
-        <v>380.35971562350056</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>250</v>
-      </c>
-      <c r="B125" t="s">
-        <v>251</v>
-      </c>
-      <c r="C125" s="2">
-        <v>4267.4996174349844</v>
-      </c>
-      <c r="D125" s="2">
-        <v>3955.9484748607383</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>252</v>
-      </c>
-      <c r="B126" t="s">
-        <v>253</v>
-      </c>
-      <c r="C126" s="2">
-        <v>2207.9452675121679</v>
-      </c>
-      <c r="D126" s="2">
-        <v>1293.9492112014973</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>254</v>
-      </c>
-      <c r="B127" t="s">
-        <v>255</v>
-      </c>
-      <c r="C127" s="2">
-        <v>4627.2770987900631</v>
-      </c>
-      <c r="D127" s="2">
-        <v>661.98177719845103</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>256</v>
-      </c>
-      <c r="B128" t="s">
-        <v>257</v>
-      </c>
-      <c r="C128" s="2">
-        <v>4190.8455162854125</v>
-      </c>
-      <c r="D128" s="2">
-        <v>229.1718712603994</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>258</v>
-      </c>
-      <c r="B129" t="s">
-        <v>259</v>
-      </c>
-      <c r="C129" s="2">
-        <v>19417.517507178836</v>
-      </c>
-      <c r="D129" s="2">
-        <v>37843.007189115429</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>260</v>
-      </c>
-      <c r="B130" t="s">
-        <v>261</v>
-      </c>
-      <c r="C130" s="2">
-        <v>4521.718082860114</v>
-      </c>
-      <c r="D130" s="2">
-        <v>3537.5791714102638</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>262</v>
-      </c>
-      <c r="B131" t="s">
-        <v>263</v>
-      </c>
-      <c r="C131" s="2">
-        <v>10281.132841262188</v>
-      </c>
-      <c r="D131" s="2">
-        <v>932.68515981531004</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>264</v>
-      </c>
-      <c r="B132" t="s">
-        <v>265</v>
-      </c>
-      <c r="C132" s="2">
-        <v>3615.9636596821756</v>
-      </c>
-      <c r="D132" s="2">
-        <v>360.81710105436366</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>266</v>
-      </c>
-      <c r="B133" t="s">
-        <v>267</v>
-      </c>
-      <c r="C133" s="2">
-        <v>5310.2788259943582</v>
-      </c>
-      <c r="D133" s="2">
-        <v>0.78932003636446946</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>268</v>
-      </c>
-      <c r="B134" t="s">
-        <v>269</v>
-      </c>
-      <c r="C134" s="2">
-        <v>6153.6142031191766</v>
-      </c>
-      <c r="D134" s="2">
-        <v>5210.3753650802237</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>270</v>
-      </c>
-      <c r="B135" t="s">
-        <v>271</v>
-      </c>
-      <c r="C135" s="2">
-        <v>11083.746336444554</v>
-      </c>
-      <c r="D135" s="2">
-        <v>222.4990443535043</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>272</v>
-      </c>
-      <c r="B136" t="s">
-        <v>273</v>
-      </c>
-      <c r="C136" s="2">
-        <v>4268.6780353954719</v>
-      </c>
-      <c r="D136" s="2">
-        <v>8651.2061458859989</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>274</v>
-      </c>
-      <c r="B137" t="s">
-        <v>275</v>
-      </c>
-      <c r="C137" s="2">
-        <v>1564.1070730941701</v>
-      </c>
-      <c r="D137" s="2">
-        <v>32025.637647496082</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>276</v>
-      </c>
-      <c r="B138" t="s">
-        <v>277</v>
-      </c>
-      <c r="C138" s="2">
-        <v>4127.2236621145339</v>
-      </c>
-      <c r="D138" s="2">
-        <v>2533.2416113254631</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>278</v>
-      </c>
-      <c r="B139" t="s">
-        <v>279</v>
-      </c>
-      <c r="C139" s="2">
-        <v>3691.3232358508822</v>
-      </c>
-      <c r="D139" s="2">
-        <v>6699.3860952976038</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>280</v>
-      </c>
-      <c r="B140" t="s">
-        <v>281</v>
-      </c>
-      <c r="C140" s="2">
-        <v>4074.410280948523</v>
-      </c>
-      <c r="D140" s="2">
-        <v>7148.9007725126521</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>282</v>
-      </c>
-      <c r="B141" t="s">
-        <v>283</v>
-      </c>
-      <c r="C141" s="2">
-        <v>3458.8952972714051</v>
-      </c>
-      <c r="D141" s="2">
-        <v>4334.8720319565455</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>284</v>
-      </c>
-      <c r="B142" t="s">
-        <v>285</v>
-      </c>
-      <c r="C142" s="2">
-        <v>4018.3912929649478</v>
-      </c>
-      <c r="D142" s="2">
         <v>758.54847008856461</v>
       </c>
     </row>

--- a/modelproject/Dataset/Natural_resources_the_world_bank.xlsx
+++ b/modelproject/Dataset/Natural_resources_the_world_bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LasseLindberg/Desktop/OneDrive - Københavns Universitet/Københavnsuniversitet/Økonomi/Kandidat/8. Semester/Introduction to programming and numerical analysis/projects-2019-ccl/modelproject/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0452F3E-6E9B-2A4C-A86A-612BEA38BC05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530F97B1-F2D6-FE43-AC4B-17E77A02E45C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="960" windowWidth="24540" windowHeight="14260" xr2:uid="{5BF30F5C-9E1A-3B4D-A9A1-546B22773A0D}"/>
+    <workbookView xWindow="720" yWindow="980" windowWidth="24540" windowHeight="14260" xr2:uid="{5BF30F5C-9E1A-3B4D-A9A1-546B22773A0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t>Code</t>
   </si>
@@ -85,12 +85,6 @@
   </si>
   <si>
     <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>Belgium</t>
   </si>
   <si>
     <t>BFA</t>
@@ -1151,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5EAC58-0B15-BA47-85FC-90D1BA0482C4}">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1194,142 +1188,142 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>2805.459284774211</v>
+        <v>9950.8712476726996</v>
       </c>
       <c r="D3" s="2">
-        <v>256257.05015687741</v>
+        <v>3931.2812536775173</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
-        <v>9950.8712476726996</v>
+        <v>4832.1505264014158</v>
       </c>
       <c r="D4" s="2">
-        <v>3931.2812536775173</v>
+        <v>2149.7694966994977</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>4832.1505264014158</v>
+        <v>16059.60093896063</v>
       </c>
       <c r="D5" s="2">
-        <v>2149.7694966994977</v>
+        <v>115042.53507921407</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>16059.60093896063</v>
+        <v>5163.8365524867768</v>
       </c>
       <c r="D6" s="2">
-        <v>115042.53507921407</v>
+        <v>1007.2118429523342</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>5163.8365524867768</v>
+        <v>5287.307714781874</v>
       </c>
       <c r="D7" s="2">
-        <v>1007.2118429523342</v>
+        <v>35938.123340326114</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
-        <v>5287.307714781874</v>
+        <v>361.14315629712326</v>
       </c>
       <c r="D8" s="2">
-        <v>35938.123340326114</v>
+        <v>13451.227888727892</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
-        <v>3986.6298034382935</v>
+        <v>1131.307678222626</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>85.040782761655052</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2">
-        <v>3023.0293992045254</v>
+        <v>10159.993877851088</v>
       </c>
       <c r="D10" s="2">
-        <v>734.13619499328809</v>
+        <v>1167.0525332525308</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2">
-        <v>1131.307678222626</v>
+        <v>5269.6786168325189</v>
       </c>
       <c r="D11" s="2">
-        <v>85.040782761655052</v>
+        <v>1864.5481076852329</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2">
-        <v>6186.0415269602827</v>
+        <v>7293.3895157280513</v>
       </c>
       <c r="D12" s="2">
-        <v>3459.4204607230654</v>
+        <v>3321.8091529752205</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1340,102 +1334,102 @@
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>361.14315629712326</v>
+        <v>4003.8121146905009</v>
       </c>
       <c r="D13" s="2">
-        <v>13451.227888727892</v>
+        <v>2302.3358318467917</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2">
-        <v>4003.8121146905009</v>
+        <v>4436.2552868944058</v>
       </c>
       <c r="D14" s="2">
-        <v>2302.3358318467917</v>
+        <v>3997.7029635636509</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2">
-        <v>10159.993877851088</v>
+        <v>10754.33676848259</v>
       </c>
       <c r="D15" s="2">
-        <v>1167.0525332525308</v>
+        <v>8811.1532497521694</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2">
-        <v>5269.6786168325189</v>
+        <v>6186.0415269602827</v>
       </c>
       <c r="D16" s="2">
-        <v>1864.5481076852329</v>
+        <v>3459.4204607230654</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2">
-        <v>7293.3895157280513</v>
+        <v>3023.0293992045254</v>
       </c>
       <c r="D17" s="2">
-        <v>3321.8091529752205</v>
+        <v>734.13619499328809</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2">
-        <v>10754.33676848259</v>
+        <v>4335.181839327578</v>
       </c>
       <c r="D18" s="2">
-        <v>8811.1532497521694</v>
+        <v>532.19106204924083</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2">
-        <v>4436.2552868944058</v>
+        <v>6046.7894721081102</v>
       </c>
       <c r="D19" s="2">
-        <v>3997.7029635636509</v>
+        <v>27915.230982349116</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
         <v>6917.6150071985585</v>
@@ -1446,24 +1440,24 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2">
-        <v>6046.7894721081102</v>
+        <v>4267.4996174349844</v>
       </c>
       <c r="D21" s="2">
-        <v>27915.230982349116</v>
+        <v>3955.9484748607383</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2">
         <v>3426.9933496586805</v>
@@ -1474,10 +1468,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2">
         <v>6210.7451835963493</v>
@@ -1488,16 +1482,16 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2">
-        <v>5000.4078263252904</v>
+        <v>6710.107340113399</v>
       </c>
       <c r="D24" s="2">
-        <v>635.97653544367074</v>
+        <v>4639.7761961238284</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1508,10 +1502,10 @@
         <v>51</v>
       </c>
       <c r="C25" s="2">
-        <v>4335.181839327578</v>
+        <v>1836.9506565237327</v>
       </c>
       <c r="D25" s="2">
-        <v>532.19106204924083</v>
+        <v>1485.7673141604803</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1522,52 +1516,52 @@
         <v>53</v>
       </c>
       <c r="C26" s="2">
-        <v>1836.9506565237327</v>
+        <v>3921.1653844013595</v>
       </c>
       <c r="D26" s="2">
-        <v>1485.7673141604803</v>
+        <v>17551.453988594021</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2">
-        <v>3921.1653844013595</v>
+        <v>15217.869430660307</v>
       </c>
       <c r="D27" s="2">
-        <v>17551.453988594021</v>
+        <v>32.221686838715925</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2">
-        <v>6710.107340113399</v>
+        <v>5000.4078263252904</v>
       </c>
       <c r="D28" s="2">
-        <v>4639.7761961238284</v>
+        <v>635.97653544367074</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2">
-        <v>15217.869430660307</v>
+        <v>2734.0086239607758</v>
       </c>
       <c r="D29" s="2">
-        <v>32.221686838715925</v>
+        <v>1156.3711662065036</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1578,10 +1572,10 @@
         <v>61</v>
       </c>
       <c r="C30" s="2">
-        <v>2990.7506766933052</v>
+        <v>6339.4533448016755</v>
       </c>
       <c r="D30" s="2">
-        <v>738.29126911019955</v>
+        <v>6917.5811220414071</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1592,10 +1586,10 @@
         <v>63</v>
       </c>
       <c r="C31" s="2">
-        <v>6339.4533448016755</v>
+        <v>2701.1025912355703</v>
       </c>
       <c r="D31" s="2">
-        <v>6917.5811220414071</v>
+        <v>1179.5505687732207</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1606,10 +1600,10 @@
         <v>65</v>
       </c>
       <c r="C32" s="2">
-        <v>2701.1025912355703</v>
+        <v>6445.4431228744943</v>
       </c>
       <c r="D32" s="2">
-        <v>1179.5505687732207</v>
+        <v>14559.516332399216</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1620,158 +1614,158 @@
         <v>67</v>
       </c>
       <c r="C33" s="2">
-        <v>6445.4431228744943</v>
+        <v>5785.8140936711898</v>
       </c>
       <c r="D33" s="2">
-        <v>14559.516332399216</v>
+        <v>4378.4480245196746</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2">
-        <v>5785.8140936711898</v>
+        <v>3676.4736642578018</v>
       </c>
       <c r="D34" s="2">
-        <v>4378.4480245196746</v>
+        <v>590.52550821715647</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2">
-        <v>5503.3389828651416</v>
+        <v>2538.6566309838199</v>
       </c>
       <c r="D35" s="2">
-        <v>326.49370427705406</v>
+        <v>50.165113412759396</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2">
-        <v>3676.4736642578018</v>
+        <v>4912.8822241131193</v>
       </c>
       <c r="D36" s="2">
-        <v>590.52550821715647</v>
+        <v>2882.7348935344376</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2">
-        <v>2538.6566309838199</v>
+        <v>5071.8182979658886</v>
       </c>
       <c r="D37" s="2">
-        <v>50.165113412759396</v>
+        <v>80.680915164987809</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2">
-        <v>4912.8822241131193</v>
+        <v>7777.6799102454979</v>
       </c>
       <c r="D38" s="2">
-        <v>2882.7348935344376</v>
+        <v>51598.317537597468</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2">
-        <v>5071.8182979658886</v>
+        <v>8000.8208615091835</v>
       </c>
       <c r="D39" s="2">
-        <v>80.680915164987809</v>
+        <v>917.2362715310461</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C40" s="2">
-        <v>7777.6799102454979</v>
+        <v>2990.7506766933052</v>
       </c>
       <c r="D40" s="2">
-        <v>51598.317537597468</v>
+        <v>738.29126911019955</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2">
-        <v>2230.067654136582</v>
+        <v>7144.4815791710207</v>
       </c>
       <c r="D41" s="2">
-        <v>3005.3521397237587</v>
+        <v>1673.0734626538563</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2">
-        <v>8000.8208615091835</v>
+        <v>9004.5493482048059</v>
       </c>
       <c r="D42" s="2">
-        <v>917.2362715310461</v>
+        <v>1417.0252766838269</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2">
-        <v>7144.4815791710207</v>
+        <v>3286.2504824245248</v>
       </c>
       <c r="D43" s="2">
-        <v>1673.0734626538563</v>
+        <v>738.03582417355244</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2">
         <v>3186.1119609832581</v>
@@ -1782,212 +1776,212 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2">
-        <v>9004.5493482048059</v>
+        <v>10010.346918697105</v>
       </c>
       <c r="D45" s="2">
-        <v>1417.0252766838269</v>
+        <v>6857.4157171853712</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2">
-        <v>3286.2504824245248</v>
+        <v>4385.8470220186036</v>
       </c>
       <c r="D46" s="2">
-        <v>738.03582417355244</v>
+        <v>222.97386482252489</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2">
-        <v>10010.346918697105</v>
+        <v>3092.3943896887627</v>
       </c>
       <c r="D47" s="2">
-        <v>6857.4157171853712</v>
+        <v>413.44467647992377</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2">
-        <v>4385.8470220186036</v>
+        <v>2203.9249087547173</v>
       </c>
       <c r="D48" s="2">
-        <v>222.97386482252489</v>
+        <v>1105.4079628227512</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2">
-        <v>2734.0086239607758</v>
+        <v>3404.360461420345</v>
       </c>
       <c r="D49" s="2">
-        <v>1156.3711662065036</v>
+        <v>3121.8575131106472</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2">
-        <v>3092.3943896887627</v>
+        <v>2329.9075365715889</v>
       </c>
       <c r="D50" s="2">
-        <v>413.44467647992377</v>
+        <v>68498.075936189838</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2">
-        <v>3404.360461420345</v>
+        <v>11973.825062710026</v>
       </c>
       <c r="D51" s="2">
-        <v>3121.8575131106472</v>
+        <v>367.47624528010425</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2">
-        <v>2203.9249087547173</v>
+        <v>5487.171525433364</v>
       </c>
       <c r="D52" s="2">
-        <v>1105.4079628227512</v>
+        <v>526.6453609233721</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2">
-        <v>11973.825062710026</v>
+        <v>3836.5449505355828</v>
       </c>
       <c r="D53" s="2">
-        <v>367.47624528010425</v>
+        <v>1299.5542784751183</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2">
-        <v>2329.9075365715889</v>
+        <v>1090.5345541860565</v>
       </c>
       <c r="D54" s="2">
-        <v>68498.075936189838</v>
+        <v>42.787533979831878</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C55" s="2">
-        <v>5487.171525433364</v>
+        <v>7095.3942028239489</v>
       </c>
       <c r="D55" s="2">
-        <v>526.6453609233721</v>
+        <v>2334.3501324177873</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2">
-        <v>3836.5449505355828</v>
+        <v>14677.136549376246</v>
       </c>
       <c r="D56" s="2">
-        <v>1299.5542784751183</v>
+        <v>53440.251436770166</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2">
-        <v>7095.3942028239489</v>
+        <v>5966.8928176022619</v>
       </c>
       <c r="D57" s="2">
-        <v>2334.3501324177873</v>
+        <v>24.889730343218702</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2">
-        <v>1090.5345541860565</v>
+        <v>2114.91868861495</v>
       </c>
       <c r="D58" s="2">
-        <v>42.787533979831878</v>
+        <v>79.335711031078617</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C59" s="2">
-        <v>14677.136549376246</v>
+        <v>1028.8629714645617</v>
       </c>
       <c r="D59" s="2">
-        <v>53440.251436770166</v>
+        <v>588862.14256608603</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1998,158 +1992,158 @@
         <v>121</v>
       </c>
       <c r="C60" s="2">
-        <v>5966.8928176022619</v>
+        <v>9434.6850411418673</v>
       </c>
       <c r="D60" s="2">
-        <v>24.889730343218702</v>
+        <v>1489.8892666703011</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C61" s="2">
-        <v>9434.6850411418673</v>
+        <v>6634.1158625426051</v>
       </c>
       <c r="D61" s="2">
-        <v>1489.8892666703011</v>
+        <v>3724.4102309331415</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C62" s="2">
-        <v>2114.91868861495</v>
+        <v>2758.8030768205449</v>
       </c>
       <c r="D62" s="2">
-        <v>79.335711031078617</v>
+        <v>2426.7776764400428</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C63" s="2">
-        <v>1028.8629714645617</v>
+        <v>3670.7536912479686</v>
       </c>
       <c r="D63" s="2">
-        <v>588862.14256608603</v>
+        <v>174.30614387682581</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C64" s="2">
-        <v>6634.1158625426051</v>
+        <v>5600.6670268974558</v>
       </c>
       <c r="D64" s="2">
-        <v>3724.4102309331415</v>
+        <v>1988.6525713033609</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C65" s="2">
-        <v>2758.8030768205449</v>
+        <v>5289.2071645124124</v>
       </c>
       <c r="D65" s="2">
-        <v>2426.7776764400428</v>
+        <v>3105.9756379713144</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C66" s="2">
-        <v>1974.6071405593493</v>
+        <v>2854.0815757215482</v>
       </c>
       <c r="D66" s="2">
-        <v>5.8077350382586683</v>
+        <v>137.62395344640154</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C67" s="2">
-        <v>3670.7536912479686</v>
+        <v>2183.0720522611773</v>
       </c>
       <c r="D67" s="2">
-        <v>174.30614387682581</v>
+        <v>4.032440339952104</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C68" s="2">
-        <v>5600.6670268974558</v>
+        <v>3910.8113648195003</v>
       </c>
       <c r="D68" s="2">
-        <v>1988.6525713033609</v>
+        <v>7894.187770310743</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C69" s="2">
-        <v>4482.9112922967179</v>
+        <v>6379.5810521813146</v>
       </c>
       <c r="D69" s="2">
-        <v>2334.9264478461491</v>
+        <v>956.2100362158244</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C70" s="2">
-        <v>2854.0815757215482</v>
+        <v>7583.6609388133329</v>
       </c>
       <c r="D70" s="2">
-        <v>137.62395344640154</v>
+        <v>10293.191184529223</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C71" s="2">
         <v>5255.636721564204</v>
@@ -2160,30 +2154,30 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C72" s="2">
-        <v>5289.2071645124124</v>
+        <v>24717.783695146409</v>
       </c>
       <c r="D72" s="2">
-        <v>3105.9756379713144</v>
+        <v>22319.661017742645</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C73" s="2">
-        <v>6379.5810521813146</v>
+        <v>4482.9112922967179</v>
       </c>
       <c r="D73" s="2">
-        <v>956.2100362158244</v>
+        <v>2334.9264478461491</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2194,66 +2188,66 @@
         <v>149</v>
       </c>
       <c r="C74" s="2">
-        <v>24717.783695146409</v>
+        <v>1296.2510165531908</v>
       </c>
       <c r="D74" s="2">
-        <v>22319.661017742645</v>
+        <v>332.92361819966578</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C75" s="2">
-        <v>1296.2510165531908</v>
+        <v>7108.4340881130502</v>
       </c>
       <c r="D75" s="2">
-        <v>332.92361819966578</v>
+        <v>1532.1937915327346</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C76" s="2">
-        <v>7583.6609388133329</v>
+        <v>3515.4624168924915</v>
       </c>
       <c r="D76" s="2">
-        <v>10293.191184529223</v>
+        <v>0.77787179221384917</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C77" s="2">
-        <v>2183.0720522611773</v>
+        <v>4552.1744847096425</v>
       </c>
       <c r="D77" s="2">
-        <v>4.032440339952104</v>
+        <v>4223.8633180204915</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C78" s="2">
-        <v>3910.8113648195003</v>
+        <v>4180.6256394780348</v>
       </c>
       <c r="D78" s="2">
-        <v>7894.187770310743</v>
+        <v>482.0285123613595</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2264,10 +2258,10 @@
         <v>159</v>
       </c>
       <c r="C79" s="2">
-        <v>7108.4340881130502</v>
+        <v>5234.4415165826258</v>
       </c>
       <c r="D79" s="2">
-        <v>1532.1937915327346</v>
+        <v>234.87384092412992</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2278,262 +2272,262 @@
         <v>161</v>
       </c>
       <c r="C80" s="2">
-        <v>5234.4415165826258</v>
+        <v>12290.988549020172</v>
       </c>
       <c r="D80" s="2">
-        <v>234.87384092412992</v>
+        <v>7869.6354493290055</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C81" s="2">
-        <v>12290.988549020172</v>
+        <v>6372.783292739522</v>
       </c>
       <c r="D81" s="2">
-        <v>7869.6354493290055</v>
+        <v>83250.768104720555</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C82" s="2">
-        <v>4180.6256394780348</v>
+        <v>2962.544152544287</v>
       </c>
       <c r="D82" s="2">
-        <v>482.0285123613595</v>
+        <v>89100.769065247179</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C83" s="2">
-        <v>4552.1744847096425</v>
+        <v>4608.450926045829</v>
       </c>
       <c r="D83" s="2">
-        <v>4223.8633180204915</v>
+        <v>293.52336614475462</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C84" s="2">
-        <v>6372.783292739522</v>
+        <v>4032.4875503775829</v>
       </c>
       <c r="D84" s="2">
-        <v>83250.768104720555</v>
+        <v>166.68107655028655</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C85" s="2">
-        <v>3515.4624168924915</v>
+        <v>20008.919875043513</v>
       </c>
       <c r="D85" s="2">
-        <v>0.77787179221384917</v>
+        <v>8866.6555810934187</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C86" s="2">
-        <v>2962.544152544287</v>
+        <v>3830.6337733415135</v>
       </c>
       <c r="D86" s="2">
-        <v>89100.769065247179</v>
+        <v>11737.164993984246</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C87" s="2">
-        <v>4608.450926045829</v>
+        <v>2544.2787538285347</v>
       </c>
       <c r="D87" s="2">
-        <v>293.52336614475462</v>
+        <v>592.42688168244865</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C88" s="2">
-        <v>4032.4875503775829</v>
+        <v>2471.6094400437514</v>
       </c>
       <c r="D88" s="2">
-        <v>166.68107655028655</v>
+        <v>3894.4406989451027</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C89" s="2">
-        <v>3830.6337733415135</v>
+        <v>4098.0359947772895</v>
       </c>
       <c r="D89" s="2">
-        <v>11737.164993984246</v>
+        <v>833.38584009547549</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C90" s="2">
-        <v>2544.2787538285347</v>
+        <v>1119.3228973125422</v>
       </c>
       <c r="D90" s="2">
-        <v>592.42688168244865</v>
+        <v>659326.63836192188</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C91" s="2">
-        <v>20008.919875043513</v>
+        <v>11189.509970521847</v>
       </c>
       <c r="D91" s="2">
-        <v>8866.6555810934187</v>
+        <v>1898.6249023118662</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C92" s="2">
-        <v>2471.6094400437514</v>
+        <v>4455.8266222610791</v>
       </c>
       <c r="D92" s="2">
-        <v>3894.4406989451027</v>
+        <v>38246.963863322584</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C93" s="2">
-        <v>4098.0359947772895</v>
+        <v>2984.8227010769992</v>
       </c>
       <c r="D93" s="2">
-        <v>833.38584009547549</v>
+        <v>59.672258060145353</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C94" s="2">
-        <v>1119.3228973125422</v>
+        <v>2283.3868867353572</v>
       </c>
       <c r="D94" s="2">
-        <v>659326.63836192188</v>
+        <v>249105.16597135458</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C95" s="2">
-        <v>11189.509970521847</v>
+        <v>1754.4920588255147</v>
       </c>
       <c r="D95" s="2">
-        <v>1898.6249023118662</v>
+        <v>339.536514875541</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C96" s="2">
-        <v>4455.8266222610791</v>
+        <v>2100.4074086709466</v>
       </c>
       <c r="D96" s="2">
-        <v>38246.963863322584</v>
+        <v>2980.1052884226783</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C97" s="2">
-        <v>2984.8227010769992</v>
+        <v>2091.6219493888684</v>
       </c>
       <c r="D97" s="2">
-        <v>59.672258060145353</v>
+        <v>223.885337055474</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C98" s="2">
-        <v>2283.3868867353572</v>
+        <v>3583.4158751502878</v>
       </c>
       <c r="D98" s="2">
-        <v>249105.16597135458</v>
+        <v>580.20518724754402</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2544,88 +2538,88 @@
         <v>199</v>
       </c>
       <c r="C99" s="2">
-        <v>1754.4920588255147</v>
+        <v>5865.4920075490254</v>
       </c>
       <c r="D99" s="2">
-        <v>339.536514875541</v>
+        <v>1138.2360118578054</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="C100" s="2">
-        <v>5865.4920075490254</v>
+        <v>4074.410280948523</v>
       </c>
       <c r="D100" s="2">
-        <v>1138.2360118578054</v>
+        <v>7148.9007725126521</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c r="C101" s="2">
-        <v>2100.4074086709466</v>
+        <v>5503.3389828651416</v>
       </c>
       <c r="D101" s="2">
-        <v>2980.1052884226783</v>
+        <v>326.49370427705406</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c r="C102" s="2">
-        <v>5129.7377732462828</v>
+        <v>1974.6071405593493</v>
       </c>
       <c r="D102" s="2">
-        <v>31394.994304493121</v>
+        <v>5.8077350382586683</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C103" s="2">
-        <v>2091.6219493888684</v>
+        <v>5129.7377732462828</v>
       </c>
       <c r="D103" s="2">
-        <v>223.885337055474</v>
+        <v>31394.994304493121</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C104" s="2">
-        <v>3583.4158751502878</v>
+        <v>4885.8824734748532</v>
       </c>
       <c r="D104" s="2">
-        <v>580.20518724754402</v>
+        <v>380.35971562350056</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C105" s="2">
         <v>3934.098088083992</v>
@@ -2636,30 +2630,30 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C106" s="2">
-        <v>4885.8824734748532</v>
+        <v>4190.8455162854125</v>
       </c>
       <c r="D106" s="2">
-        <v>380.35971562350056</v>
+        <v>229.1718712603994</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B107" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C107" s="2">
-        <v>4267.4996174349844</v>
+        <v>3615.9636596821756</v>
       </c>
       <c r="D107" s="2">
-        <v>3955.9484748607383</v>
+        <v>360.81710105436366</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2670,122 +2664,122 @@
         <v>217</v>
       </c>
       <c r="C108" s="2">
-        <v>2207.9452675121679</v>
+        <v>4627.2770987900631</v>
       </c>
       <c r="D108" s="2">
-        <v>1293.9492112014973</v>
+        <v>661.98177719845103</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C109" s="2">
-        <v>4627.2770987900631</v>
+        <v>2207.9452675121679</v>
       </c>
       <c r="D109" s="2">
-        <v>661.98177719845103</v>
+        <v>1293.9492112014973</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C110" s="2">
-        <v>4190.8455162854125</v>
+        <v>4521.718082860114</v>
       </c>
       <c r="D110" s="2">
-        <v>229.1718712603994</v>
+        <v>3537.5791714102638</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B111" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C111" s="2">
-        <v>19417.517507178836</v>
+        <v>10281.132841262188</v>
       </c>
       <c r="D111" s="2">
-        <v>37843.007189115429</v>
+        <v>932.68515981531004</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B112" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C112" s="2">
-        <v>4521.718082860114</v>
+        <v>19417.517507178836</v>
       </c>
       <c r="D112" s="2">
-        <v>3537.5791714102638</v>
+        <v>37843.007189115429</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B113" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C113" s="2">
-        <v>10281.132841262188</v>
+        <v>5310.2788259943582</v>
       </c>
       <c r="D113" s="2">
-        <v>932.68515981531004</v>
+        <v>0.78932003636446946</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B114" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C114" s="2">
-        <v>3615.9636596821756</v>
+        <v>6153.6142031191766</v>
       </c>
       <c r="D114" s="2">
-        <v>360.81710105436366</v>
+        <v>5210.3753650802237</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>230</v>
+        <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>231</v>
+        <v>7</v>
       </c>
       <c r="C115" s="2">
-        <v>5310.2788259943582</v>
+        <v>2805.459284774211</v>
       </c>
       <c r="D115" s="2">
-        <v>0.78932003636446946</v>
+        <v>256257.05015687741</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="B116" t="s">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="C116" s="2">
-        <v>6153.6142031191766</v>
+        <v>2230.067654136582</v>
       </c>
       <c r="D116" s="2">
-        <v>5210.3753650802237</v>
+        <v>3005.3521397237587</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2796,32 +2790,32 @@
         <v>235</v>
       </c>
       <c r="C117" s="2">
-        <v>11083.746336444554</v>
+        <v>4268.6780353954719</v>
       </c>
       <c r="D117" s="2">
-        <v>222.4990443535043</v>
+        <v>8651.2061458859989</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B118" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C118" s="2">
-        <v>4268.6780353954719</v>
+        <v>11083.746336444554</v>
       </c>
       <c r="D118" s="2">
-        <v>8651.2061458859989</v>
+        <v>222.4990443535043</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C119" s="2">
         <v>1564.1070730941701</v>
@@ -2832,10 +2826,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B120" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C120" s="2">
         <v>4127.2236621145339</v>
@@ -2846,10 +2840,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B121" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C121" s="2">
         <v>3691.3232358508822</v>
@@ -2866,10 +2860,10 @@
         <v>245</v>
       </c>
       <c r="C122" s="2">
-        <v>4074.410280948523</v>
+        <v>3458.8952972714051</v>
       </c>
       <c r="D122" s="2">
-        <v>7148.9007725126521</v>
+        <v>4334.8720319565455</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2880,27 +2874,16 @@
         <v>247</v>
       </c>
       <c r="C123" s="2">
-        <v>3458.8952972714051</v>
+        <v>4018.3912929649478</v>
       </c>
       <c r="D123" s="2">
-        <v>4334.8720319565455</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>248</v>
-      </c>
-      <c r="B124" t="s">
-        <v>249</v>
-      </c>
-      <c r="C124" s="2">
-        <v>4018.3912929649478</v>
-      </c>
-      <c r="D124" s="2">
         <v>758.54847008856461</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D123">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>